--- a/pet-simulator/Excel/AreaWorld_区域世界表.xlsx
+++ b/pet-simulator/Excel/AreaWorld_区域世界表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -67,13 +67,10 @@
     <t xml:space="preserve">2001|2002|2003|2004|2005|2006|2007|2008|2009|2010</t>
   </si>
   <si>
-    <t xml:space="preserve">AreaWorld_textUI_2</t>
+    <t xml:space="preserve">Task_shop_12</t>
   </si>
   <si>
     <t xml:space="preserve">3001|3002|3003|3004|3005|3006|3007|3008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaWorld_textUI_3</t>
   </si>
 </sst>
 </file>
@@ -178,12 +175,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,7 +196,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,7 +396,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,14 +405,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="2" width="10.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -422,10 +423,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -436,10 +437,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -450,60 +451,60 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>174823</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>174811</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>174812</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pet-simulator/Excel/AreaWorld_区域世界表.xlsx
+++ b/pet-simulator/Excel/AreaWorld_区域世界表.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/AreaWorld_区域世界表.xlsx
+++ b/pet-simulator/Excel/AreaWorld_区域世界表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -67,10 +67,13 @@
     <t xml:space="preserve">2001|2002|2003|2004|2005|2006|2007|2008|2009|2010</t>
   </si>
   <si>
+    <t xml:space="preserve">AreaWorld_textUI_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3001|3002|3003|3004|3005|3006|3007|3008</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task_shop_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3001|3002|3003|3004|3005|3006|3007|3008</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -494,7 +497,7 @@
         <v>174812</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
